--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/2_Adıyaman_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/2_Adıyaman_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BDDB426-7E2D-4173-9609-67789CAF74F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91CB49F1-1F13-49C6-8F0D-C769C91B017F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="698" xr2:uid="{FAF2C571-3D62-4D5D-861F-E9913184F9B3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="698" xr2:uid="{33195901-704D-461B-8CCC-4E163DD61BB9}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -937,14 +937,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{67A401CF-F5C5-4190-BA98-A53B7409EDFB}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{4EE04988-D05D-403F-8D63-0D7FDA4CEFDF}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{A052E8AE-7DED-4CCA-8CA8-520953808E05}"/>
-    <cellStyle name="Normal 4" xfId="5" xr:uid="{C93FF2EB-AFC9-4FFF-8F55-4E3912CBE4E5}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{4C673F4D-BA8E-47D7-B078-80D5D9C77F0C}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{ADA13227-56F2-4703-9261-DD7A26D82B70}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{6F3D7AE1-44FE-4092-B15E-0396B9816272}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{2C05D695-A992-437B-BF40-75852E1E17E2}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{DA47E050-0946-4975-864C-CC332D3957B9}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{D1838AAE-B3F5-4CCB-95A5-3B2C42041C9E}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{F333FB02-797A-4E75-8E74-4752697A187C}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{D7FE7918-F597-4839-AA05-57DBA97D5111}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{9339D9AD-9679-4163-B97A-1BA3CB1F69DB}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{1FB5F579-21AB-43BD-A272-373404BD6F0F}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{839101D2-109A-43E3-82D9-7B7BB00160F6}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{AF3071F3-21E3-432D-8875-BBAA7C65AE0A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1314,7 +1314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FAFBA8C-D464-4D41-8165-5168A0D9A95A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2763BC1A-FD50-4E47-8F61-593693FB9D89}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -2590,18 +2590,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{B6E1937D-7873-4F8E-B36C-F9D39D955DC3}"/>
-    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{11092A0A-6E52-4970-A08B-15D8290A240F}"/>
-    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{51702C63-5746-41AD-862F-2E39CC4D45D1}"/>
-    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4CD305DB-ABA0-44A4-855A-4F213EF05E9A}"/>
-    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{94911FF4-43E2-4AA9-A27A-BB67776ACD9E}"/>
-    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C831EFEB-4B29-4518-8CA1-7FEAFABA6DEC}"/>
-    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B85F1007-5032-4D5E-A4AA-ED761B3085A0}"/>
-    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{667141EB-552F-400F-BFB8-A5389547F2C8}"/>
-    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{27F69C3C-DD6C-40D4-90A9-4BC38919CCF5}"/>
-    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{28F12B13-E50E-49F5-9C18-B4452388FC65}"/>
-    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{F466A237-916D-4260-8B2B-11D9E64338BB}"/>
-    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{5A11525A-F418-4C45-89B8-DBAC366294DA}"/>
+    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{90F24A50-E0CC-45A0-AFFE-2EAF8CB1899E}"/>
+    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{22F6C16A-D34F-4300-AD88-2BB68C727218}"/>
+    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B19A77EE-8550-49C2-BB3C-77B34A5229B6}"/>
+    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C5E96FE6-B555-47FD-AEC7-2E8CCE78AD0C}"/>
+    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{38AD0A87-4A47-4C8F-A778-6D5E64C7106F}"/>
+    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9CA6EAA4-EBBA-4D4E-B553-3B197913779A}"/>
+    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{150B4990-05D1-4255-9A7D-FBDD849CE532}"/>
+    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A51DB6F6-1FAD-4065-8D9B-B8C8765426D3}"/>
+    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8D17C8EC-3DA7-4D2D-A8DC-6FED05268B5D}"/>
+    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{3CBC4E9F-D6A1-439B-8321-B47D683B52C9}"/>
+    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{42829C01-6BC3-4643-AE33-54C7CDAD7A97}"/>
+    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{65F20498-D750-412D-82A4-B3E6BA8D8731}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2614,7 +2614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3027E95-1A81-4636-8265-57FD2D255C84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10FCA7A-FF5E-4E91-BA97-4561081A3FBC}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3874,18 +3874,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{049D4E43-F0DE-4902-9345-F56016C0ABFA}"/>
-    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{3277C9AD-F090-4189-852A-C967ADCC610D}"/>
-    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8D626942-FBBA-4E53-9087-27B3F6382891}"/>
-    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CA4AAF30-FA62-48A5-A609-1505331ABA6B}"/>
-    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{41509C72-5576-4D5E-BAE5-2BB057E04184}"/>
-    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FE383CDF-444E-4459-8D45-C4712737470C}"/>
-    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{877A05A9-40F6-4B5A-BC43-54FB2796E48D}"/>
-    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D87172D9-26CB-42FD-964C-BFE950361B31}"/>
-    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A1AB6859-D59D-41C3-9C1C-EDA96F3AD72A}"/>
-    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{CAD38660-0D1F-4DE1-A046-55736C43F947}"/>
-    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{D0976CF6-B7C6-46FC-931E-821B89C52D66}"/>
-    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{9F8F1E23-58CE-4FEC-A8A9-18677DB0E2A6}"/>
+    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{9836AC2F-B8A9-459A-8120-F8D251BC6983}"/>
+    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{E8C31242-79E8-4F85-8C56-87649FF1FEEC}"/>
+    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E7FC9A44-BE90-4B2A-803C-2617539AB17E}"/>
+    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8508048B-799F-4987-9EF6-76BDEE8D9C91}"/>
+    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{DC681806-5BEE-424C-8094-631BC02D9882}"/>
+    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0B01EFCC-C0E5-46BC-8402-73B2739D8DD3}"/>
+    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{176D2CD4-C671-4663-A795-EA4482E986A7}"/>
+    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9A9CD9FD-83E6-486C-95AE-A6539B0925C4}"/>
+    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3A560F23-929C-4514-850C-B0801A42052D}"/>
+    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{F644B198-6FDE-43B1-ADED-5EEFE279DEEF}"/>
+    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{D841A357-977D-4D9A-92EF-F8EA62FB1454}"/>
+    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{52CC6CA8-C163-4B4B-80A5-93BB987B9D4B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3898,7 +3898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F387C5-AD16-4869-AA0F-CB7315C5E52D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3BA26B-7B98-4668-845D-173DC2A3DEC7}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5152,17 +5152,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{FB340282-809C-4C78-9821-16600C88DC6C}"/>
-    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{BE92B6FC-79CD-4E39-838A-7939FCED4FFE}"/>
-    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B0620F77-7658-467B-AE53-48BD331E9D11}"/>
-    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{DC8D45FF-40FE-4849-A477-38A09265D4F3}"/>
-    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FF9CF81E-33AE-4713-A6EF-CBDA3C0D97B6}"/>
-    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0D20F793-CC17-43C6-8CF5-DB4753E5DBFC}"/>
-    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4CE96121-6EC7-49C5-AF0F-38DE89860BCF}"/>
-    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5BBF6799-CE2A-46A6-8577-7C087330A76E}"/>
-    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{0E7952DB-8F41-4D05-8693-C2CD947EA1CF}"/>
-    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{4C60820C-A631-48B2-85F5-0FB2008FE18F}"/>
-    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{C3F8C789-29EA-4E2B-B1D2-2DEBE0F1E358}"/>
+    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{47D98AE7-9178-45EC-B00A-310F8013435B}"/>
+    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{63E912EB-0EFD-44A8-B4A5-30EFFA1DD44B}"/>
+    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{61EBA961-ED70-44D6-B1F6-5DFDF03B91F1}"/>
+    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{3772030C-7B86-40C5-9C42-445E8F022E24}"/>
+    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{81FDF2D9-B610-44FE-81A8-A827B0EBCCD9}"/>
+    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{00C81900-3591-47D1-8BAD-5F4F3294A832}"/>
+    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9AB4220B-674A-4F85-BFB9-39B7E2B5D77B}"/>
+    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B0B6C4EE-3932-48D7-9EFE-F86880556A06}"/>
+    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{173BAF32-65FB-4BAE-80B0-A79A3C4E7CD1}"/>
+    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{9CC44308-467D-4400-AACE-B134367C9531}"/>
+    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{8D7C210D-C23F-477D-B886-5D2CD769BBF2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5175,7 +5175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD139D8-A2C6-4B10-99CA-A4BBFCA2234A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0907A8AF-81E2-47EF-A11A-38A353B6AA40}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6429,18 +6429,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{E2C3D952-7FE1-4D68-B774-51531DE7678F}"/>
-    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6ABA1FCB-07DF-4BF4-AA46-9BE229E9C5A1}"/>
-    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{1E6CC4C0-20B2-417E-842A-350D62575AFE}"/>
-    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EEE441DB-A16F-4577-80B3-06EF4518E620}"/>
-    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{225FBD29-F3A2-4F14-8CC0-B34C2867AFCF}"/>
-    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{41ECFF80-3CA9-4B09-B370-E599619EBE55}"/>
-    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{83A98BCC-E734-45A0-B41E-2C0CA39B37E6}"/>
-    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FA8CD218-652B-4368-91E5-424032F3A9D4}"/>
-    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BF787579-6CAC-4613-B605-65878DF4A9C3}"/>
-    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{A14F5889-79DA-4BCA-BADC-4CBA7C42DF5C}"/>
-    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{F074E673-5BAB-45B1-B00C-A7CC81A66366}"/>
-    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{9E05235D-3892-4901-8A6F-3AA23FE0E366}"/>
+    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{5EAE8067-1D7B-4B2B-B00E-12C31426A97D}"/>
+    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2D75ABD3-CF3E-41A3-8D53-21B34CCB7270}"/>
+    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{E9777FBF-618D-4CDE-9706-976256B2B301}"/>
+    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5EBE749C-8F53-4052-942F-B23DB5CA2AF9}"/>
+    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{D586C77B-60F4-47C9-ADCF-8B8C59974D19}"/>
+    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3E168097-E152-4714-8FD8-C4C631B76DB6}"/>
+    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C841B53F-6071-40B3-B4FB-DD907E6C48F4}"/>
+    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{32082CB3-BF06-40DD-A1B2-ABBD0AB3F767}"/>
+    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4D43A67D-FC1D-4153-ABE8-BBEFFA27BCB7}"/>
+    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{B3806875-DCA4-49B4-A516-922D54683B59}"/>
+    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{246EE7E1-0293-4E64-98F5-D0AE5549404E}"/>
+    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{53984AAC-3E78-4D6E-8874-23A2A5A03149}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6453,7 +6453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F281CA8-2891-47AD-92F0-82F225837937}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84A57BF-14BC-48C8-BF3F-579989921265}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -7729,18 +7729,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{ED558F55-E2AE-46CC-BA05-4F888DC41111}"/>
-    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{CACF20F5-1C41-4CA5-8E23-2875B4110408}"/>
-    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BA21351A-28C2-4BEE-9373-4B557B3B3C63}"/>
-    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AB0F2016-8158-4397-9C0F-79559F71E41B}"/>
-    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{8FA04ED7-B287-46AF-8A72-69C026638E49}"/>
-    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A1649F44-4588-4F52-B089-8679D1C29BE9}"/>
-    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{025D6266-CB7B-44A8-9A6B-304F7765F6F8}"/>
-    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2632E4BF-52F4-49DB-BA21-4BC0BD9A0F55}"/>
-    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{89714F8C-8A38-4B2D-8754-D21705DB1019}"/>
-    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{5F59DCF5-9357-4F97-A7CA-3A1832521F16}"/>
-    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{2C425631-E079-496D-AAAD-EC16A1530634}"/>
-    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{6CD42557-000A-4C79-BB57-641DECC48B0A}"/>
+    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{FD41FC15-B262-4536-BD0A-A12AEAD4DEE0}"/>
+    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{FEF665E0-6B66-4E0C-81C7-B05458B82310}"/>
+    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{041E251A-7C95-45DC-AC7A-028A3811B8D2}"/>
+    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{35951D43-C937-4ACE-AC50-96CAEB0A0BBB}"/>
+    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{7D7014EC-5656-4FB4-BDCE-5C9BD5F74740}"/>
+    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BBCF7616-3327-4D5D-B6C3-7FB29CF89CB2}"/>
+    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ECB51C04-EEAB-448B-92F2-73E3ED09F847}"/>
+    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{013EB3FF-B699-410A-AE7F-FFA67B55FA7F}"/>
+    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9BC7EA90-F2A8-49F5-B04D-9964ED00B25B}"/>
+    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{92DB5C91-D011-41AB-8924-22002B2C109A}"/>
+    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{501DB8AA-FD42-44CB-8E2A-E1DA98DA8A56}"/>
+    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{68E29DB2-513A-401E-BE14-7FACEF8AE32D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7753,7 +7753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F039FE76-5B2C-4D12-8E33-03C32D9AFA64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5323E4BF-6C3D-4C7A-B17F-0990BC06C546}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -9029,18 +9029,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{006F19D4-71A4-4CFA-9C13-E9E1EC1756C1}"/>
-    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{398B5EF4-16AA-4E57-A3B6-8707A31038D1}"/>
-    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{31584400-09FD-4281-ACA1-369A8929D037}"/>
-    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BCD49D2B-E65B-4013-951F-28DC89CD8444}"/>
-    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{13DE77C7-7E74-454C-BF3D-D73C4CD8B40E}"/>
-    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F0278C3D-00C2-4FB3-A290-83774DBC8629}"/>
-    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FE600F1C-1437-41E6-A2BD-D0F9A7B14326}"/>
-    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{72C57911-96C9-4D35-A62C-93CB6926C788}"/>
-    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{75B81806-0F9B-4C6C-A133-D0AF7BCE508E}"/>
-    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{8A489F47-A1F7-488D-A0E9-A29EDDBA2D69}"/>
-    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{93658135-FF94-4C14-B778-E8E4011B09DA}"/>
-    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{E5E90496-2415-43EF-ADFF-B27FE1EE2B75}"/>
+    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{64FF9D99-B809-4E8A-A2A6-B9A171E4DD7D}"/>
+    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{C7A7AF62-2A2B-43B3-906B-1310F53924CE}"/>
+    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{56F2805F-9DD0-4A8D-9BF4-7CFEEA1E2CBE}"/>
+    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A7A0B608-20B7-4759-ADFC-9E9F96CEFF5C}"/>
+    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{84B4C775-9B21-41EF-B817-4A9712A0444A}"/>
+    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D49CDF63-034C-4810-A6C8-B5A2C362A8AF}"/>
+    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{10C4875A-FACA-498D-A8E3-0A52A003C91A}"/>
+    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8D813F02-50F3-466F-8E86-DAE5E53D9FD0}"/>
+    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D297B886-DE1F-4CA8-A390-6CC4DCE13B6C}"/>
+    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{297D4DD3-F1F8-4D58-8F86-C3FC4B629A12}"/>
+    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{98AC0C1A-1CD9-4D88-B8E8-70C178D7732C}"/>
+    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{53B48B35-3571-49C7-8247-278C2309BF46}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9053,7 +9053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF887287-3B44-4950-8B3A-26A06C430842}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D39D89-901E-4ADA-90EF-A44CF81159F5}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -10329,18 +10329,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{FAD6833D-9363-425E-AFBB-D31BEE5EE1A0}"/>
-    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{59C0B4C3-1C9C-4F49-B802-ACAAE38C1F18}"/>
-    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{730C5EB3-9DBF-4400-875A-7AAB26D16E9E}"/>
-    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EB5284F8-6BD4-484E-AD3C-D5DA86107F9B}"/>
-    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{D02FD8BB-FDF9-422B-BA3C-551C291B00DC}"/>
-    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DA6B2ADD-3E28-4C9A-9B36-0F371617C9F9}"/>
-    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{232D6FBB-C92F-4335-A951-05691BAF7D9A}"/>
-    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CB592EDE-8F8D-4300-A84F-8B2759324D62}"/>
-    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EBC86A48-C75B-4D2E-87EA-924FFDDA8AAC}"/>
-    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{F4F0F25F-66E7-4240-B12F-2B2B83F1746D}"/>
-    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{BFD41201-0F11-49EF-8797-4C2867B20F0C}"/>
-    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{923B1D0B-1824-4A9F-8045-23079F06F5DA}"/>
+    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{9CE6A817-4384-450A-8CC0-8D1FAFA5335A}"/>
+    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{85ECA271-3520-4AC3-8437-1E3016A1672D}"/>
+    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B849036E-4C0B-4E7C-A14C-A62BCF45801C}"/>
+    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3D0574A3-5AA7-4BD7-8302-30FE8F2DE5A1}"/>
+    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{B47D250C-7E35-4510-BF6A-11BA6C6360FB}"/>
+    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9160CA47-2CC0-4523-AA96-E06C53445A5E}"/>
+    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5CE1A480-6BA8-4E86-B026-54693E9A36C4}"/>
+    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4D4F9BF3-856B-4417-984D-C460B7256F4E}"/>
+    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{17868F0F-34CA-4A15-84C8-4689765443D7}"/>
+    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{A6D41289-DE71-412D-B439-97AF9A208511}"/>
+    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{1B4D0287-35B3-42A7-857A-835B429103DC}"/>
+    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{4C71CDDD-DBCA-49EA-963B-1CF84C72E658}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10353,7 +10353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC6CBB6-7B4B-4D1B-BB11-DA0D9CC3D695}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ADF1FE5-4811-4FCC-A904-17992640E081}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11629,18 +11629,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{EAE42711-533E-438F-9D4A-A38DCE52A1E4}"/>
-    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{62D1BD0A-1713-44D9-8076-FED9C680B30D}"/>
-    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5F18D6E9-09EB-4B2C-B58E-81A7664D9D2A}"/>
-    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{35F2F755-4F57-4458-9828-69015BDFF664}"/>
-    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{70289826-7309-4699-A2F1-B71350EFC59A}"/>
-    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{034C70A6-56B7-4967-A471-D33B82BF2244}"/>
-    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{398F5238-BC4C-4E56-B9AD-9B84EF37FC71}"/>
-    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A07D25C5-58D2-426D-8350-BA5E8D1DF543}"/>
-    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DA52B67E-08B4-4FFF-9B98-3D69F0B114D2}"/>
-    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{07E457ED-354C-4617-BABC-A943BF2223E4}"/>
-    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{E97DD99B-02D8-4144-BF3F-6D873C8905CA}"/>
-    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{C95B3887-8B47-4FFD-8BC7-FF8AB2B5E323}"/>
+    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{0CC64D91-CCAA-43A8-A9EB-D4FBBC489789}"/>
+    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{CC36B9A5-C7FB-4151-8918-5D1074BB3423}"/>
+    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B4504188-5981-4DA7-969E-8111761E9BB6}"/>
+    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{86D95308-9C40-4504-A7A5-5301B786F795}"/>
+    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{3431EC94-ACE6-43E3-9866-82A5671911C2}"/>
+    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DDE2B368-82D7-492D-AB10-41F2DBCA6EDF}"/>
+    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{45B086C4-A822-4169-9D63-8779F6EC0089}"/>
+    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{844D4530-9547-44B3-BC3D-F43B2D9401D4}"/>
+    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{88A631E0-62E4-476A-A4A7-06C2F01EF041}"/>
+    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{8280F3E3-D9FA-4B7F-95EB-E8E30553AAAB}"/>
+    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{DFD5F56B-8136-45E4-A8F5-A90017925247}"/>
+    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{2A60B683-D73F-474B-A1DF-84406F104297}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11653,7 +11653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84E6283-E4FC-45FF-9D44-5DE370391B40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9481FC4-DEF0-4615-B09B-46C00F3134A7}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -12919,18 +12919,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{F627D811-CE5A-4B26-81F8-159D6BFCD1F4}"/>
-    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{649082CD-10CB-42ED-91E3-A711687B3DF6}"/>
-    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CE7435A2-EA17-4210-938E-580308121E6C}"/>
-    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{16B8C4FA-0489-429F-8B76-85C81F77F582}"/>
-    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{2F98D7C0-CBE4-4926-9001-DB7216D48FAC}"/>
-    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8FF3BE4B-5F46-4D04-BC7D-4A9F9157CFCA}"/>
-    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{13DB3625-BF12-4540-A164-6EC7DF8EBCB3}"/>
-    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{590551BD-1FF6-4058-ADB3-EC33F927F876}"/>
-    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E1A467CD-A270-4318-BF36-54989D759FFC}"/>
-    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{D9205DF0-F3DD-487E-A416-76BC22BCF4AF}"/>
-    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{CCDB0506-F72A-43F2-8D57-4411A76F3938}"/>
-    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{E198B39D-819C-4189-80BB-2EF5A710020E}"/>
+    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{3EEE7C04-F1AC-4039-A3F0-C6E321055AE0}"/>
+    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{C9C7CF04-8F33-4268-9197-3D5814A9407D}"/>
+    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{50E0EB15-2EB0-4E07-98EC-146C2CE654B3}"/>
+    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C42EE2C3-DE4E-4954-823E-69D249C2C26C}"/>
+    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{D25123FE-301C-46A6-93BB-17C669587191}"/>
+    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{16930B47-535C-4A00-8FDB-588D91652347}"/>
+    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BC9633CB-CB3A-4654-8851-A2B997806FD0}"/>
+    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{39701B3D-37C0-47EF-915A-475ADD4B32D5}"/>
+    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{723D0E41-7806-4255-8B59-BB2503FF584D}"/>
+    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{BD13B1C4-4031-4472-99C7-B075BC6CE5B6}"/>
+    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{2B0092C2-BD40-45C2-81DC-129DDBBA8F5E}"/>
+    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{0DF7F5C9-6FFF-46C3-9528-893C5CE1E4BA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12943,7 +12943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54444AD6-7A74-45A7-853E-F33355076D40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51995781-D0A8-475F-A523-5DCC02CEC21D}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14211,18 +14211,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{50FEFFE4-672B-41E7-A771-9A6D14911FBA}"/>
-    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{49780882-8B70-443D-9FFB-CDF3D2D7A94F}"/>
-    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{87F2BE61-3918-4359-80E2-6B8D49AE10E5}"/>
-    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{00776692-3EF9-43C6-B827-ED6445FE7D46}"/>
-    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{C6C1BBA2-71E5-4B36-B825-1B446C954DCC}"/>
-    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6403784D-232F-4153-AFA2-E31147981C0C}"/>
-    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{34AC0B59-E853-42A4-9052-21C0B9C9E68E}"/>
-    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5F61818E-BC87-4518-AD3F-4F11F6B9ECB4}"/>
-    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{19593195-0B57-466F-A91E-667E292EB0C4}"/>
-    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{A82A7A6A-57D6-460B-9D10-263A0728F8E7}"/>
-    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{FFD8C6C7-918C-48D3-8E13-4DF1AB830DA7}"/>
-    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{4D8EA962-7EEF-4687-8849-E056F635A587}"/>
+    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{6FA96D27-0EFC-4866-A1A2-E854DB765E95}"/>
+    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{8E1C5026-FD60-4045-886E-BED366E66474}"/>
+    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EF4FB143-06DA-4304-B43B-BA63812A7BCA}"/>
+    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DB85C555-D067-452F-8BC6-7C2359C7878F}"/>
+    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{84395E19-EF7D-4904-ABC4-DC3E11F5DA1D}"/>
+    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{59AE7B15-6BE9-41A4-91C5-66E3D8705E6C}"/>
+    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{97A2B29A-AED7-460A-9436-2BB6B92BD862}"/>
+    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9B724A2C-27DE-4FD8-85AB-C68000F7040F}"/>
+    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{565608E1-A31A-4BF7-8CB2-FB548386FB18}"/>
+    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{4A0BD950-2B62-4F70-99AD-D4E4D7C371CB}"/>
+    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{68385DD5-323C-410C-9683-30B2A239948B}"/>
+    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{7171671D-C85B-4270-BF28-D96F09A77E94}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14235,7 +14235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C43B5D-4C0C-4222-B5B4-64165028A58C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F802A7DA-334A-42E6-B455-C2F356F9A52C}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15501,18 +15501,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{C24997AE-7F82-454C-8CCC-C1989C56D7CD}"/>
-    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{C1AD9908-ECE7-4E7B-B944-3A8BCBA1A73F}"/>
-    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5D1D4E70-06A2-43C1-AD6B-1CA0632C1B05}"/>
-    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A1F0E778-9256-4685-9433-E7EBF82741D3}"/>
-    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{B9A8CA06-E7DB-4238-B01E-48B58DFA005D}"/>
-    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8F594E3F-93A3-4F9C-982E-C499335A634F}"/>
-    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{465D6198-B33E-46D6-8E94-F076DE5EDA41}"/>
-    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A3DCEB59-4517-4167-9131-875B19AF6C99}"/>
-    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3F974B25-555E-4524-81DB-D2B82B78AF25}"/>
-    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{DDBD5D41-C8C0-4E48-861C-1BF7F731139D}"/>
-    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{8ECBADFE-0F75-4390-8584-1E8242115EF6}"/>
-    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{FBF011ED-BC98-47D0-9356-6068A1FDE7F1}"/>
+    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{F593B684-2151-45BD-B600-1BDAAE6B7BB5}"/>
+    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{8A0590BA-A0F9-486A-98B5-5F0281FCFB5E}"/>
+    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{090C2F03-69DC-418A-8723-EBA59FF43A91}"/>
+    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{46820918-DF1D-44FE-BA52-03077A504E8A}"/>
+    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{5ECBE0AE-8B93-4CA1-924C-A7D9A396993F}"/>
+    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7C3C4D9A-1827-4B6C-AB11-82F48F2D5F93}"/>
+    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{45B1D0EE-B51C-4C68-94BC-58297FF9E370}"/>
+    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{271E6E6C-5D28-4AC2-8935-E872939A2A1D}"/>
+    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E8CAEA24-9EEB-46A0-9849-E54D9C48F18E}"/>
+    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{67BCA5C7-39FE-4831-AA9A-B5224D1C07F4}"/>
+    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{9CF10CDB-DC63-4F4B-8FEB-54E67E9AA0BC}"/>
+    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{1417975B-0755-4F31-B6CF-D40F96C23FCB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15525,7 +15525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455DF58C-C7A6-4460-BDD4-3989DED756F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C4028EE-C638-46D6-8605-9A451E27457C}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16793,18 +16793,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{D3BF4022-7853-494B-AAA6-6C4A7794798A}"/>
-    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{4E8DBFB3-8018-4CCD-9332-99D46CDB48FF}"/>
-    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{88524323-54F9-4F52-A98B-831C5AF87755}"/>
-    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2F7C754E-930C-47A1-B060-4A9772E955AC}"/>
-    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{1D5A5AFD-756B-452E-A501-D6A90C792222}"/>
-    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{15CAD263-53C5-4CF1-B130-12598E3DD82D}"/>
-    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3E537C94-3CAE-496A-A763-FAEFFB670DF0}"/>
-    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D3B3E856-D398-4214-9145-AF9E12C87FAC}"/>
-    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C570626C-D334-499D-A50E-918BD25230F9}"/>
-    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{B2BD460A-0AAA-4601-82F4-F3BB1B86F7C5}"/>
-    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{E2027F76-7CC1-4123-B946-AB7FC05197E5}"/>
-    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{24C325C0-7CD3-4B8C-B789-E326A943DE3A}"/>
+    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{BFD52E0B-8CBB-43AD-B460-3C267DFF3914}"/>
+    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{431A7ABF-159A-43C6-AB60-23AC757C499C}"/>
+    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{54C48A1A-6361-46BF-9610-3AE7723F0B2B}"/>
+    <hyperlink ref="C6" location="'NİSAN '!A1" display="NİSAN" xr:uid="{26366CAE-9676-47E3-B399-A7111D85C478}"/>
+    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{600B83FF-F00E-4E54-849A-85A1C6CC79A3}"/>
+    <hyperlink ref="E6" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{347F987B-94B8-4518-817E-C7604002083E}"/>
+    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8669F7E3-D583-44B7-B6A5-BCFA5C88C5EE}"/>
+    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{31D83FE7-5B98-4707-8D72-37EE79783E80}"/>
+    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{87A657A0-D60D-40CF-8337-6363F486CA60}"/>
+    <hyperlink ref="C8" location="EKİM!A1" display="EKİM" xr:uid="{FDE27601-B253-46FA-B95F-A875571FF2B3}"/>
+    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{CB8FB23F-EB39-46B5-966C-C1C2B956EAF2}"/>
+    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{8C4605F6-5256-4D5F-B73E-E01A56E5B1E6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
